--- a/data/trans_orig/P14C13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{447F4514-43E2-40E5-AA8B-ADD42EA292FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E111E009-F748-4E92-B8EB-0F992D165192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57A74998-E5CA-4042-9D34-008A88A42579}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4CED27B-86EC-4880-BA5E-2729EC27FBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="199">
   <si>
     <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>70,76%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>57,6%</t>
   </si>
   <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>36,76%</t>
+    <t>45,51%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,19 +125,19 @@
     <t>29,24%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,82 +149,82 @@
     <t>29,41%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>59,16%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>31,08%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -233,76 +233,79 @@
     <t>53,2%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>62,26%</t>
   </si>
   <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>58,15%</t>
   </si>
   <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>34,06%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>16,98%</t>
+    <t>17,29%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -311,55 +314,55 @@
     <t>74,4%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>5,25%</t>
@@ -368,25 +371,25 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>14,64%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -395,67 +398,67 @@
     <t>71,14%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>12,59%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>6,55%</t>
   </si>
   <si>
     <t>2,81%</t>
@@ -464,7 +467,7 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -473,160 +476,160 @@
     <t>80,83%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1041,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEC5191-010A-4998-A0C2-0EEEC1569140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E734CA28-29B0-47A0-A71F-3C168AB93801}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,10 +1685,10 @@
         <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1694,13 +1697,13 @@
         <v>2765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1709,13 +1712,13 @@
         <v>11711</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,7 +1774,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1783,13 +1786,13 @@
         <v>44005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -1798,13 +1801,13 @@
         <v>58256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -1813,13 +1816,13 @@
         <v>102260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1837,13 @@
         <v>12032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1849,13 +1852,13 @@
         <v>18482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -1864,13 +1867,13 @@
         <v>30514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1888,13 @@
         <v>3108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1900,13 +1903,13 @@
         <v>8481</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1915,13 +1918,13 @@
         <v>11589</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,7 +1980,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1989,13 +1992,13 @@
         <v>39672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -2004,13 +2007,13 @@
         <v>79452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -2019,13 +2022,13 @@
         <v>119124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2043,13 @@
         <v>13829</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2055,13 +2058,13 @@
         <v>20158</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -2070,13 +2073,13 @@
         <v>33987</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2094,13 @@
         <v>2264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2106,13 +2109,13 @@
         <v>2165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2121,13 +2124,13 @@
         <v>4429</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2186,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2195,13 +2198,13 @@
         <v>74545</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -2210,13 +2213,13 @@
         <v>150833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>207</v>
@@ -2225,13 +2228,13 @@
         <v>225378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2249,13 @@
         <v>14810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2261,13 +2264,13 @@
         <v>37431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -2276,13 +2279,13 @@
         <v>52242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2300,13 @@
         <v>2865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2312,13 +2315,13 @@
         <v>8003</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2327,13 +2330,13 @@
         <v>10868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2404,13 @@
         <v>187033</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>309</v>
@@ -2416,13 +2419,13 @@
         <v>347383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>489</v>
@@ -2431,13 +2434,13 @@
         <v>534416</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2455,13 @@
         <v>58640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -2467,13 +2470,13 @@
         <v>103384</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
@@ -2482,13 +2485,13 @@
         <v>162025</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2506,13 @@
         <v>24768</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -2518,13 +2521,13 @@
         <v>27197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -2533,13 +2536,13 @@
         <v>51965</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,7 +2598,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E111E009-F748-4E92-B8EB-0F992D165192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2AD872-57D3-4844-BEEE-515195903367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4CED27B-86EC-4880-BA5E-2729EC27FBE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5DAEBDE-0871-498E-9F64-11ED48E6D081}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="199">
   <si>
-    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
+    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2016 (Tasa respuesta: 10,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>70,76%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>57,6%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>45,51%</t>
+    <t>45,4%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,19 +125,19 @@
     <t>29,24%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,412 +149,412 @@
     <t>29,41%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>59,16%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>31,08%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>75,35%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>63,4%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>74,7%</t>
@@ -563,73 +563,73 @@
     <t>72,68%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1044,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E734CA28-29B0-47A0-A71F-3C168AB93801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09623FC-297E-4D0C-ABE6-B3AE369FD3E3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,10 +1479,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1491,13 +1491,13 @@
         <v>2958</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1506,13 +1506,13 @@
         <v>9448</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,7 +1568,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1580,13 +1580,13 @@
         <v>24240</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -1595,13 +1595,13 @@
         <v>34079</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -1610,13 +1610,13 @@
         <v>58319</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>12376</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1646,13 +1646,13 @@
         <v>17892</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -1661,13 +1661,13 @@
         <v>30268</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1682,13 @@
         <v>8946</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1697,13 +1697,13 @@
         <v>2765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1712,13 +1712,13 @@
         <v>11711</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1786,13 +1786,13 @@
         <v>44005</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -1801,13 +1801,13 @@
         <v>58256</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -1816,13 +1816,13 @@
         <v>102260</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1837,13 @@
         <v>12032</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1852,13 +1852,13 @@
         <v>18482</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -1867,13 +1867,13 @@
         <v>30514</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1888,13 @@
         <v>3108</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1903,13 +1903,13 @@
         <v>8481</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1918,13 +1918,13 @@
         <v>11589</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1992,13 +1992,13 @@
         <v>39672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -2007,13 +2007,13 @@
         <v>79452</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -2022,13 +2022,13 @@
         <v>119124</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>13829</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2058,13 +2058,13 @@
         <v>20158</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -2073,13 +2073,13 @@
         <v>33987</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2094,13 @@
         <v>2264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2109,13 +2109,13 @@
         <v>2165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2124,13 +2124,13 @@
         <v>4429</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2198,13 +2198,13 @@
         <v>74545</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -2213,13 +2213,13 @@
         <v>150833</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>207</v>
@@ -2228,13 +2228,13 @@
         <v>225378</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2249,13 @@
         <v>14810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2264,13 +2264,13 @@
         <v>37431</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -2279,13 +2279,13 @@
         <v>52242</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>2865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>163</v>
